--- a/src/main/resources/SLIM2.xlsx
+++ b/src/main/resources/SLIM2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="220" windowWidth="20740" windowHeight="11280"/>
+    <workbookView xWindow="4220" yWindow="3180" windowWidth="20740" windowHeight="11720"/>
   </bookViews>
   <sheets>
     <sheet name="version1.0" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7438" uniqueCount="3281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7438" uniqueCount="3288">
   <si>
     <t>Chinese</t>
   </si>
@@ -27321,6 +27321,48 @@
   </si>
   <si>
     <t>%s이(가) 이미 사용 중입니다. 로봇을 재설정하고 네트워크에 다시 연결하십시오.</t>
+  </si>
+  <si>
+    <t>LA-Spanish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orean</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LA-Portuguese</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hebrew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -28032,9 +28074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H172" sqref="H172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -28075,7 +28117,7 @@
         <v>314</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>653</v>
+        <v>3281</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>654</v>
@@ -28093,25 +28135,25 @@
         <v>658</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>659</v>
+        <v>3282</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>660</v>
+        <v>3284</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>661</v>
+        <v>3285</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>662</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>663</v>
+        <v>3287</v>
       </c>
       <c r="Q1" s="34" t="s">
         <v>664</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>665</v>
+        <v>3286</v>
       </c>
       <c r="S1" s="10" t="s">
         <v>1554</v>
@@ -28123,7 +28165,7 @@
         <v>1556</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>1557</v>
+        <v>3283</v>
       </c>
       <c r="W1" s="10" t="s">
         <v>692</v>
@@ -39754,7 +39796,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:24" s="12" customFormat="1">
+    <row r="1" spans="1:24" s="12" customFormat="1" ht="28">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -39826,7 +39868,7 @@
       </c>
       <c r="X1" s="29"/>
     </row>
-    <row r="2" spans="1:24" s="13" customFormat="1" ht="42">
+    <row r="2" spans="1:24" s="13" customFormat="1" ht="56">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -39895,7 +39937,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="13" customFormat="1" ht="42">
+    <row r="3" spans="1:24" s="13" customFormat="1" ht="70">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -39964,7 +40006,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="13" customFormat="1" ht="17">
+    <row r="4" spans="1:24" s="13" customFormat="1" ht="28">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -40033,7 +40075,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="13" customFormat="1" ht="17">
+    <row r="5" spans="1:24" s="13" customFormat="1" ht="28">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -40102,7 +40144,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="13" customFormat="1" ht="17">
+    <row r="6" spans="1:24" s="13" customFormat="1" ht="28">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -40171,7 +40213,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="13" customFormat="1">
+    <row r="7" spans="1:24" s="13" customFormat="1" ht="28">
       <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
@@ -40240,7 +40282,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="13" customFormat="1">
+    <row r="8" spans="1:24" s="13" customFormat="1" ht="28">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -40309,7 +40351,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="13" customFormat="1">
+    <row r="9" spans="1:24" s="13" customFormat="1" ht="28">
       <c r="A9" s="2" t="s">
         <v>88</v>
       </c>
@@ -40378,7 +40420,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="13" customFormat="1" ht="17">
+    <row r="10" spans="1:24" s="13" customFormat="1" ht="28">
       <c r="A10" s="2" t="s">
         <v>89</v>
       </c>
@@ -40447,7 +40489,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="13" customFormat="1">
+    <row r="11" spans="1:24" s="13" customFormat="1" ht="28">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -40516,7 +40558,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="13" customFormat="1">
+    <row r="12" spans="1:24" s="13" customFormat="1" ht="28">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -40585,7 +40627,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="13" customFormat="1" ht="28">
+    <row r="13" spans="1:24" s="13" customFormat="1" ht="29">
       <c r="A13" s="3" t="s">
         <v>91</v>
       </c>
@@ -40654,7 +40696,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="13" customFormat="1">
+    <row r="14" spans="1:24" s="13" customFormat="1" ht="28">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -40723,7 +40765,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="13" customFormat="1" ht="28">
+    <row r="15" spans="1:24" s="13" customFormat="1" ht="42">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -40792,7 +40834,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="13" customFormat="1" ht="42">
+    <row r="16" spans="1:24" s="13" customFormat="1" ht="98">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -40861,7 +40903,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="17" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -40930,7 +40972,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="18" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -40999,7 +41041,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="13" customFormat="1" ht="17">
+    <row r="19" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A19" s="2" t="s">
         <v>93</v>
       </c>
@@ -41068,7 +41110,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="13" customFormat="1" ht="17">
+    <row r="20" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
@@ -41137,7 +41179,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="13" customFormat="1" ht="17">
+    <row r="21" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A21" s="2" t="s">
         <v>95</v>
       </c>
@@ -41206,7 +41248,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="13" customFormat="1">
+    <row r="22" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A22" s="2" t="s">
         <v>96</v>
       </c>
@@ -41275,7 +41317,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="23" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A23" s="2" t="s">
         <v>97</v>
       </c>
@@ -41413,7 +41455,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="13" customFormat="1">
+    <row r="25" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A25" s="2" t="s">
         <v>99</v>
       </c>
@@ -41482,7 +41524,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="13" customFormat="1" ht="17">
+    <row r="26" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
@@ -41551,7 +41593,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="13" customFormat="1" ht="29">
+    <row r="27" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -41620,7 +41662,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="44" customFormat="1" ht="42">
+    <row r="28" spans="1:23" s="44" customFormat="1" ht="84">
       <c r="A28" s="39" t="s">
         <v>15</v>
       </c>
@@ -41689,7 +41731,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="29" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -41758,7 +41800,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="13" customFormat="1" ht="84">
+    <row r="30" spans="1:23" s="13" customFormat="1" ht="126">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -41827,7 +41869,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="31" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
@@ -41896,7 +41938,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="13" customFormat="1" ht="53">
+    <row r="32" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -41965,7 +42007,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="33" spans="1:23" s="13" customFormat="1" ht="98">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -42034,7 +42076,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="13" customFormat="1" ht="77">
+    <row r="34" spans="1:23" s="13" customFormat="1" ht="126">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -42103,7 +42145,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="13" customFormat="1" ht="84">
+    <row r="35" spans="1:23" s="13" customFormat="1" ht="126">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -42172,7 +42214,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="36" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -42241,7 +42283,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="37" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
@@ -42310,7 +42352,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="13" customFormat="1" ht="65">
+    <row r="38" spans="1:23" s="13" customFormat="1" ht="112">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -42379,7 +42421,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="13" customFormat="1" ht="84">
+    <row r="39" spans="1:23" s="13" customFormat="1" ht="112">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -42448,7 +42490,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="13" customFormat="1" ht="84">
+    <row r="40" spans="1:23" s="13" customFormat="1" ht="112">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -42517,7 +42559,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="41" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A41" s="2" t="s">
         <v>101</v>
       </c>
@@ -42586,7 +42628,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="13" customFormat="1" ht="140">
+    <row r="42" spans="1:23" s="13" customFormat="1" ht="196">
       <c r="A42" s="2" t="s">
         <v>639</v>
       </c>
@@ -42655,7 +42697,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="13" customFormat="1">
+    <row r="43" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -42724,7 +42766,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="44" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A44" s="2" t="s">
         <v>102</v>
       </c>
@@ -42793,7 +42835,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="45" spans="1:23" s="13" customFormat="1" ht="126">
       <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
@@ -42931,7 +42973,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="44" customFormat="1" ht="29">
+    <row r="47" spans="1:23" s="44" customFormat="1" ht="39">
       <c r="A47" s="39" t="s">
         <v>646</v>
       </c>
@@ -43000,7 +43042,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="44" customFormat="1" ht="29">
+    <row r="48" spans="1:23" s="44" customFormat="1" ht="56">
       <c r="A48" s="39" t="s">
         <v>31</v>
       </c>
@@ -43069,7 +43111,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="49" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A49" s="2" t="s">
         <v>32</v>
       </c>
@@ -43138,7 +43180,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="50" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -43207,7 +43249,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="51" spans="1:23" s="13" customFormat="1" ht="98">
       <c r="A51" s="2" t="s">
         <v>103</v>
       </c>
@@ -43276,7 +43318,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="13" customFormat="1" ht="98">
+    <row r="52" spans="1:23" s="13" customFormat="1" ht="154">
       <c r="A52" s="2" t="s">
         <v>34</v>
       </c>
@@ -43345,7 +43387,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="13" customFormat="1" ht="17">
+    <row r="53" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -43414,7 +43456,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="13" customFormat="1">
+    <row r="54" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A54" s="2" t="s">
         <v>36</v>
       </c>
@@ -43483,7 +43525,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="55" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A55" s="2" t="s">
         <v>37</v>
       </c>
@@ -43552,7 +43594,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="56" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A56" s="2" t="s">
         <v>38</v>
       </c>
@@ -43621,7 +43663,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="57" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A57" s="2" t="s">
         <v>39</v>
       </c>
@@ -43690,7 +43732,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="13" customFormat="1">
+    <row r="58" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
@@ -43759,7 +43801,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="59" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="59" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
@@ -43828,7 +43870,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="60" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="60" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A60" s="2" t="s">
         <v>106</v>
       </c>
@@ -43897,7 +43939,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="61" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A61" s="2" t="s">
         <v>107</v>
       </c>
@@ -43966,7 +44008,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="62" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A62" s="2" t="s">
         <v>108</v>
       </c>
@@ -44104,7 +44146,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="64" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A64" s="2" t="s">
         <v>110</v>
       </c>
@@ -44173,7 +44215,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="65" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A65" s="2" t="s">
         <v>111</v>
       </c>
@@ -44242,7 +44284,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="13" customFormat="1">
+    <row r="66" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A66" s="2" t="s">
         <v>112</v>
       </c>
@@ -44311,7 +44353,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="67" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A67" s="2" t="s">
         <v>113</v>
       </c>
@@ -44380,7 +44422,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="13" customFormat="1">
+    <row r="68" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A68" s="2" t="s">
         <v>114</v>
       </c>
@@ -44449,7 +44491,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="13" customFormat="1">
+    <row r="69" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A69" s="2" t="s">
         <v>115</v>
       </c>
@@ -44518,7 +44560,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="13" customFormat="1">
+    <row r="70" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A70" s="2" t="s">
         <v>116</v>
       </c>
@@ -44587,7 +44629,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="13" customFormat="1">
+    <row r="71" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A71" s="2" t="s">
         <v>117</v>
       </c>
@@ -44656,7 +44698,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="13" customFormat="1">
+    <row r="72" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A72" s="2" t="s">
         <v>118</v>
       </c>
@@ -44725,7 +44767,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="13" customFormat="1">
+    <row r="73" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A73" s="2" t="s">
         <v>119</v>
       </c>
@@ -44794,7 +44836,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="13" customFormat="1">
+    <row r="74" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A74" s="2" t="s">
         <v>120</v>
       </c>
@@ -44863,7 +44905,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="13" customFormat="1" ht="17">
+    <row r="75" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A75" s="2" t="s">
         <v>121</v>
       </c>
@@ -44932,7 +44974,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="76" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A76" s="2" t="s">
         <v>40</v>
       </c>
@@ -45001,7 +45043,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="77" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A77" s="2" t="s">
         <v>41</v>
       </c>
@@ -45070,7 +45112,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="78" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A78" s="2" t="s">
         <v>42</v>
       </c>
@@ -45139,7 +45181,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="13" customFormat="1" ht="17">
+    <row r="79" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A79" s="2" t="s">
         <v>43</v>
       </c>
@@ -45208,7 +45250,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="80" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A80" s="2" t="s">
         <v>44</v>
       </c>
@@ -45277,7 +45319,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="13" customFormat="1" ht="29">
+    <row r="81" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A81" s="2" t="s">
         <v>45</v>
       </c>
@@ -45346,7 +45388,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="13" customFormat="1" ht="70">
+    <row r="82" spans="1:23" s="13" customFormat="1" ht="112">
       <c r="A82" s="2" t="s">
         <v>47</v>
       </c>
@@ -45415,7 +45457,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="13" customFormat="1" ht="196">
+    <row r="83" spans="1:23" s="13" customFormat="1" ht="294">
       <c r="A83" s="2" t="s">
         <v>48</v>
       </c>
@@ -45484,7 +45526,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="84" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="84" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A84" s="2" t="s">
         <v>49</v>
       </c>
@@ -45553,7 +45595,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="85" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="85" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A85" s="2" t="s">
         <v>50</v>
       </c>
@@ -45622,7 +45664,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="86" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="86" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A86" s="2" t="s">
         <v>122</v>
       </c>
@@ -45691,7 +45733,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="87" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="87" spans="1:23" s="13" customFormat="1" ht="29">
       <c r="A87" s="2" t="s">
         <v>51</v>
       </c>
@@ -45760,7 +45802,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="88" spans="1:23" s="13" customFormat="1" ht="17">
+    <row r="88" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A88" s="2" t="s">
         <v>123</v>
       </c>
@@ -45829,7 +45871,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="89" spans="1:23" s="13" customFormat="1" ht="29">
       <c r="A89" s="2" t="s">
         <v>52</v>
       </c>
@@ -45898,7 +45940,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="13" customFormat="1" ht="29">
+    <row r="90" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A90" s="2" t="s">
         <v>53</v>
       </c>
@@ -45967,7 +46009,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="91" spans="1:23" s="13" customFormat="1" ht="84">
       <c r="A91" s="2" t="s">
         <v>54</v>
       </c>
@@ -46036,7 +46078,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="13" customFormat="1" ht="98">
+    <row r="92" spans="1:23" s="13" customFormat="1" ht="182">
       <c r="A92" s="2" t="s">
         <v>124</v>
       </c>
@@ -46105,7 +46147,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="93" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="93" spans="1:23" s="13" customFormat="1" ht="84">
       <c r="A93" s="2" t="s">
         <v>55</v>
       </c>
@@ -46174,7 +46216,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="94" spans="1:23" s="13" customFormat="1" ht="84">
       <c r="A94" s="2" t="s">
         <v>56</v>
       </c>
@@ -46243,7 +46285,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="95" spans="1:23" s="13" customFormat="1" ht="70">
+    <row r="95" spans="1:23" s="13" customFormat="1" ht="112">
       <c r="A95" s="2" t="s">
         <v>125</v>
       </c>
@@ -46312,7 +46354,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="13" customFormat="1" ht="17">
+    <row r="96" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A96" s="2" t="s">
         <v>57</v>
       </c>
@@ -46381,7 +46423,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="13" customFormat="1" ht="154">
+    <row r="97" spans="1:23" s="13" customFormat="1" ht="266">
       <c r="A97" s="2" t="s">
         <v>126</v>
       </c>
@@ -46450,7 +46492,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="13" customFormat="1" ht="17">
+    <row r="98" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A98" s="2" t="s">
         <v>58</v>
       </c>
@@ -46519,7 +46561,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="99" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A99" s="2" t="s">
         <v>647</v>
       </c>
@@ -46588,7 +46630,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="100" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A100" s="2" t="s">
         <v>59</v>
       </c>
@@ -46657,7 +46699,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="101" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="101" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A101" s="2" t="s">
         <v>60</v>
       </c>
@@ -46726,7 +46768,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="102" spans="1:23" s="13" customFormat="1" ht="112">
+    <row r="102" spans="1:23" s="13" customFormat="1" ht="154">
       <c r="A102" s="2" t="s">
         <v>305</v>
       </c>
@@ -46795,7 +46837,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="103" spans="1:23" s="13" customFormat="1" ht="112">
+    <row r="103" spans="1:23" s="13" customFormat="1" ht="182">
       <c r="A103" s="2" t="s">
         <v>311</v>
       </c>
@@ -46864,7 +46906,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="13" customFormat="1" ht="112">
+    <row r="104" spans="1:23" s="13" customFormat="1" ht="182">
       <c r="A104" s="2" t="s">
         <v>312</v>
       </c>
@@ -46933,7 +46975,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="13" customFormat="1" ht="126">
+    <row r="105" spans="1:23" s="13" customFormat="1" ht="168">
       <c r="A105" s="2" t="s">
         <v>306</v>
       </c>
@@ -47002,7 +47044,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="13" customFormat="1" ht="112">
+    <row r="106" spans="1:23" s="13" customFormat="1" ht="168">
       <c r="A106" s="2" t="s">
         <v>304</v>
       </c>
@@ -47071,7 +47113,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="13" customFormat="1" ht="70">
+    <row r="107" spans="1:23" s="13" customFormat="1" ht="112">
       <c r="A107" s="2" t="s">
         <v>61</v>
       </c>
@@ -47140,7 +47182,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="108" spans="1:23" s="13" customFormat="1" ht="98">
       <c r="A108" s="2" t="s">
         <v>62</v>
       </c>
@@ -47209,7 +47251,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="13" customFormat="1" ht="196">
+    <row r="109" spans="1:23" s="13" customFormat="1" ht="266">
       <c r="A109" s="2" t="s">
         <v>63</v>
       </c>
@@ -47278,7 +47320,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="110" spans="1:23" s="13" customFormat="1" ht="84">
       <c r="A110" s="2" t="s">
         <v>64</v>
       </c>
@@ -47347,7 +47389,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="111" spans="1:23" s="13" customFormat="1" ht="84">
       <c r="A111" s="2" t="s">
         <v>65</v>
       </c>
@@ -47416,7 +47458,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="112" spans="1:23" s="13" customFormat="1" ht="98">
       <c r="A112" s="2" t="s">
         <v>66</v>
       </c>
@@ -47485,7 +47527,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="13" customFormat="1" ht="29">
+    <row r="113" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A113" s="2" t="s">
         <v>298</v>
       </c>
@@ -47554,7 +47596,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="114" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="114" spans="1:23" s="13" customFormat="1" ht="84">
       <c r="A114" s="2" t="s">
         <v>300</v>
       </c>
@@ -47623,7 +47665,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="115" spans="1:23" s="13" customFormat="1" ht="29">
+    <row r="115" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A115" s="2" t="s">
         <v>127</v>
       </c>
@@ -47692,7 +47734,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="116" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="116" spans="1:23" s="13" customFormat="1" ht="112">
       <c r="A116" s="2" t="s">
         <v>67</v>
       </c>
@@ -47761,7 +47803,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="117" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A117" s="2" t="s">
         <v>68</v>
       </c>
@@ -47830,7 +47872,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="118" spans="1:23" s="13" customFormat="1" ht="84">
+    <row r="118" spans="1:23" s="13" customFormat="1" ht="126">
       <c r="A118" s="2" t="s">
         <v>69</v>
       </c>
@@ -47899,7 +47941,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="13" customFormat="1" ht="41">
+    <row r="119" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A119" s="2" t="s">
         <v>70</v>
       </c>
@@ -47968,7 +48010,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="120" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="120" spans="1:23" s="13" customFormat="1" ht="112">
       <c r="A120" s="2" t="s">
         <v>71</v>
       </c>
@@ -48037,7 +48079,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="121" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="121" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A121" s="2" t="s">
         <v>72</v>
       </c>
@@ -48106,7 +48148,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="122" spans="1:23" s="13" customFormat="1" ht="84">
+    <row r="122" spans="1:23" s="13" customFormat="1" ht="126">
       <c r="A122" s="2" t="s">
         <v>73</v>
       </c>
@@ -48175,7 +48217,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="123" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="123" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A123" s="2" t="s">
         <v>74</v>
       </c>
@@ -48244,7 +48286,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="124" spans="1:23" s="13" customFormat="1" ht="70">
+    <row r="124" spans="1:23" s="13" customFormat="1" ht="112">
       <c r="A124" s="2" t="s">
         <v>75</v>
       </c>
@@ -48313,7 +48355,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="125" spans="1:23" s="13" customFormat="1" ht="70">
+    <row r="125" spans="1:23" s="13" customFormat="1" ht="98">
       <c r="A125" s="2" t="s">
         <v>128</v>
       </c>
@@ -48382,7 +48424,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="126" spans="1:23" s="13" customFormat="1" ht="98">
+    <row r="126" spans="1:23" s="13" customFormat="1" ht="140">
       <c r="A126" s="2" t="s">
         <v>129</v>
       </c>
@@ -48451,7 +48493,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="127" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="127" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A127" s="2" t="s">
         <v>130</v>
       </c>
@@ -48520,7 +48562,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="128" spans="1:23" s="13" customFormat="1" ht="84">
+    <row r="128" spans="1:23" s="13" customFormat="1" ht="126">
       <c r="A128" s="2" t="s">
         <v>131</v>
       </c>
@@ -48589,7 +48631,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="129" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A129" s="2" t="s">
         <v>303</v>
       </c>
@@ -48658,7 +48700,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="130" spans="1:23" s="13" customFormat="1" ht="140">
+    <row r="130" spans="1:23" s="13" customFormat="1" ht="224">
       <c r="A130" s="2" t="s">
         <v>132</v>
       </c>
@@ -48727,7 +48769,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="131" spans="1:23" s="13" customFormat="1" ht="112">
+    <row r="131" spans="1:23" s="13" customFormat="1" ht="140">
       <c r="A131" s="2" t="s">
         <v>77</v>
       </c>
@@ -48796,7 +48838,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="132" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="132" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A132" s="2" t="s">
         <v>78</v>
       </c>
@@ -48865,7 +48907,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="133" spans="1:23" s="13" customFormat="1" ht="84">
+    <row r="133" spans="1:23" s="13" customFormat="1" ht="154">
       <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
@@ -48934,7 +48976,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="134" spans="1:23" s="13" customFormat="1" ht="70">
+    <row r="134" spans="1:23" s="13" customFormat="1" ht="98">
       <c r="A134" s="2" t="s">
         <v>79</v>
       </c>
@@ -49003,7 +49045,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="135" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="135" spans="1:23" s="13" customFormat="1" ht="112">
       <c r="A135" s="2" t="s">
         <v>80</v>
       </c>
@@ -49072,7 +49114,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="136" spans="1:23" s="13" customFormat="1" ht="182">
+    <row r="136" spans="1:23" s="13" customFormat="1" ht="322">
       <c r="A136" s="2" t="s">
         <v>652</v>
       </c>
@@ -49141,7 +49183,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="137" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="137" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A137" s="3" t="s">
         <v>134</v>
       </c>
@@ -49210,7 +49252,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="138" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="138" spans="1:23" s="13" customFormat="1" ht="84">
       <c r="A138" s="3" t="s">
         <v>135</v>
       </c>
@@ -49279,7 +49321,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="139" spans="1:23" s="13" customFormat="1" ht="84">
+    <row r="139" spans="1:23" s="13" customFormat="1" ht="168">
       <c r="A139" s="3" t="s">
         <v>136</v>
       </c>
@@ -49348,7 +49390,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="140" spans="1:23" s="13" customFormat="1" ht="65">
+    <row r="140" spans="1:23" s="13" customFormat="1" ht="89">
       <c r="A140" s="3" t="s">
         <v>137</v>
       </c>
@@ -49417,7 +49459,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="141" spans="1:23" s="13" customFormat="1" ht="98">
       <c r="A141" s="3" t="s">
         <v>629</v>
       </c>
@@ -49486,7 +49528,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="142" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="142" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A142" s="3" t="s">
         <v>138</v>
       </c>
@@ -49555,7 +49597,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="143" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="143" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A143" s="3" t="s">
         <v>139</v>
       </c>
@@ -49624,7 +49666,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="144" spans="1:23" s="13" customFormat="1" ht="29">
+    <row r="144" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A144" s="3" t="s">
         <v>140</v>
       </c>
@@ -49693,7 +49735,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="145" spans="1:23" s="13" customFormat="1" ht="84">
       <c r="A145" s="3" t="s">
         <v>141</v>
       </c>
@@ -49762,7 +49804,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="13" customFormat="1" ht="113">
+    <row r="146" spans="1:23" s="13" customFormat="1" ht="196">
       <c r="A146" s="3" t="s">
         <v>142</v>
       </c>
@@ -49831,7 +49873,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="147" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A147" s="3" t="s">
         <v>143</v>
       </c>
@@ -49900,7 +49942,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="148" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="148" spans="1:23" s="13" customFormat="1" ht="112">
       <c r="A148" s="3" t="s">
         <v>144</v>
       </c>
@@ -49969,7 +50011,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="149" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="149" spans="1:23" s="13" customFormat="1" ht="126">
       <c r="A149" s="3" t="s">
         <v>145</v>
       </c>
@@ -50038,7 +50080,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="150" spans="1:23" s="13" customFormat="1" ht="42">
+    <row r="150" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A150" s="3" t="s">
         <v>146</v>
       </c>
@@ -50107,7 +50149,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="151" spans="1:23" s="13" customFormat="1" ht="28">
+    <row r="151" spans="1:23" s="13" customFormat="1" ht="70">
       <c r="A151" s="3" t="s">
         <v>147</v>
       </c>
@@ -50176,7 +50218,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="152" spans="1:23" s="13" customFormat="1">
+    <row r="152" spans="1:23" s="13" customFormat="1" ht="28">
       <c r="A152" s="3" t="s">
         <v>148</v>
       </c>
@@ -50245,7 +50287,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="153" spans="1:23" s="13" customFormat="1" ht="70">
+    <row r="153" spans="1:23" s="13" customFormat="1" ht="154">
       <c r="A153" s="3" t="s">
         <v>149</v>
       </c>
@@ -50314,7 +50356,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="154" spans="1:23" s="13" customFormat="1" ht="56">
+    <row r="154" spans="1:23" s="13" customFormat="1" ht="98">
       <c r="A154" s="3" t="s">
         <v>150</v>
       </c>
@@ -50383,7 +50425,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="13" customFormat="1" ht="29">
+    <row r="155" spans="1:23" s="13" customFormat="1" ht="56">
       <c r="A155" s="3" t="s">
         <v>151</v>
       </c>
@@ -50590,7 +50632,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="158" spans="1:23" s="13" customFormat="1" ht="406">
+    <row r="158" spans="1:23" s="13" customFormat="1" ht="409">
       <c r="A158" s="3" t="s">
         <v>153</v>
       </c>
@@ -50659,7 +50701,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="159" spans="1:23" s="13" customFormat="1" ht="29">
+    <row r="159" spans="1:23" s="13" customFormat="1" ht="42">
       <c r="A159" s="3" t="s">
         <v>154</v>
       </c>
@@ -50797,7 +50839,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="161" spans="1:23" s="1" customFormat="1">
+    <row r="161" spans="1:23" s="1" customFormat="1" ht="28">
       <c r="A161" s="3" t="s">
         <v>624</v>
       </c>
@@ -50935,7 +50977,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="163" spans="1:23" s="1" customFormat="1" ht="98">
+    <row r="163" spans="1:23" s="1" customFormat="1" ht="210">
       <c r="A163" s="3" t="s">
         <v>641</v>
       </c>
@@ -51072,7 +51114,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="165" spans="1:23" s="22" customFormat="1" ht="84">
+    <row r="165" spans="1:23" s="22" customFormat="1" ht="168">
       <c r="A165" s="3" t="s">
         <v>687</v>
       </c>
@@ -51141,7 +51183,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="166" spans="1:23" s="22" customFormat="1" ht="56">
+    <row r="166" spans="1:23" s="22" customFormat="1" ht="84">
       <c r="A166" s="3" t="s">
         <v>688</v>
       </c>
@@ -51210,7 +51252,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="167" spans="1:23" s="1" customFormat="1" ht="182">
+    <row r="167" spans="1:23" s="1" customFormat="1" ht="266">
       <c r="A167" s="3" t="s">
         <v>689</v>
       </c>
@@ -51279,7 +51321,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="168" spans="1:23" s="1" customFormat="1" ht="77">
+    <row r="168" spans="1:23" s="1" customFormat="1" ht="101">
       <c r="A168" s="3" t="s">
         <v>690</v>
       </c>
@@ -51348,7 +51390,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="169" spans="1:23" s="1" customFormat="1" ht="29">
+    <row r="169" spans="1:23" s="1" customFormat="1" ht="56">
       <c r="A169" s="3" t="s">
         <v>691</v>
       </c>
